--- a/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
@@ -23,21 +23,20 @@
     <sheet name="Mississauga Mid-Way Canada" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Pune India" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Rock Road Radford Virginia" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Sandy Point Town St Kitts" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Seoul South Korea" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Shanghai Minhang District Chin" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Tianjin China" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="West Chester Pennsylvania" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Rosemont Illinois" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Sandy Point Town St Kitts" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Seoul South Korea" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Shanghai Minhang District Chin" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Tianjin China" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Wolfschlugen Germany" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="Wood Dale Illinois" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="Denver Colorado" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Rosemont Illinois" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -51,7 +50,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -183,6 +182,9 @@
     <t xml:space="preserve">Rock Road Radford Virginia</t>
   </si>
   <si>
+    <t xml:space="preserve">Rosemont Illinois</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sandy Point Town St Kitts</t>
   </si>
   <si>
@@ -195,9 +197,6 @@
     <t xml:space="preserve">Tianjin China</t>
   </si>
   <si>
-    <t xml:space="preserve">West Chester Pennsylvania</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wolfschlugen Germany</t>
   </si>
   <si>
@@ -206,15 +205,12 @@
   <si>
     <t xml:space="preserve">Denver Colorado</t>
   </si>
-  <si>
-    <t xml:space="preserve">Rosemont Illinois</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="26">
+  <numFmts count="25">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -240,7 +236,6 @@
     <numFmt numFmtId="187" formatCode="0.0%"/>
     <numFmt numFmtId="188" formatCode="0.0%"/>
     <numFmt numFmtId="189" formatCode="0.0%"/>
-    <numFmt numFmtId="190" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -276,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -303,7 +298,6 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -960,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1031,7 +1025,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1102,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1471,7 +1465,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1542,7 +1536,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1613,7 +1607,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2100,28 +2094,28 @@
         <v>0</v>
       </c>
       <c r="P2" s="12" t="n">
-        <v>0.0152</v>
+        <v>0.0145</v>
       </c>
       <c r="Q2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="12" t="n">
-        <v>0.0152</v>
+        <v>0.0145</v>
       </c>
       <c r="S2" s="12" t="n">
-        <v>0.0156</v>
+        <v>0.0149</v>
       </c>
       <c r="T2" s="12" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="12" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="V2" s="12" t="n">
-        <v>0.0312</v>
+        <v>0.0149</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0.0458</v>
+        <v>0.0292</v>
       </c>
     </row>
     <row r="3">
@@ -2171,28 +2165,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="12" t="n">
-        <v>0.01368</v>
+        <v>0.01305</v>
       </c>
       <c r="Q3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="12" t="n">
-        <v>0.01368</v>
+        <v>0.01305</v>
       </c>
       <c r="S3" s="12" t="n">
-        <v>0.01404</v>
+        <v>0.01341</v>
       </c>
       <c r="T3" s="12" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="12" t="n">
-        <v>0.01404</v>
+        <v>0</v>
       </c>
       <c r="V3" s="12" t="n">
-        <v>0.02808</v>
+        <v>0.01341</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0.04122</v>
+        <v>0.02628</v>
       </c>
     </row>
     <row r="4">
@@ -2463,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2534,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2605,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2770,52 +2764,52 @@
         <v>0</v>
       </c>
       <c r="H2" s="13" t="n">
-        <v>0.0147</v>
+        <v>0.0149</v>
       </c>
       <c r="I2" s="13" t="n">
-        <v>0.0303</v>
+        <v>0.0308</v>
       </c>
       <c r="J2" s="13" t="n">
-        <v>0.0443</v>
+        <v>0.045</v>
       </c>
       <c r="K2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="13" t="n">
-        <v>0.0156</v>
+        <v>0.0159</v>
       </c>
       <c r="M2" s="13" t="n">
-        <v>0.0317</v>
+        <v>0.0323</v>
       </c>
       <c r="N2" s="13" t="n">
-        <v>0.0469</v>
+        <v>0.0476</v>
       </c>
       <c r="O2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="13" t="n">
-        <v>0.0351</v>
+        <v>0.0357</v>
       </c>
       <c r="Q2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="13" t="n">
-        <v>0.0339</v>
+        <v>0.0345</v>
       </c>
       <c r="S2" s="13" t="n">
-        <v>0.0179</v>
+        <v>0.0182</v>
       </c>
       <c r="T2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="13" t="n">
-        <v>0.0182</v>
+        <v>0.0185</v>
       </c>
       <c r="V2" s="13" t="n">
-        <v>0.0359</v>
+        <v>0.0366</v>
       </c>
       <c r="W2" s="13" t="n">
-        <v>0.1623</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="3">
@@ -2841,52 +2835,52 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>0.01323</v>
+        <v>0.01341</v>
       </c>
       <c r="I3" s="13" t="n">
-        <v>0.02727</v>
+        <v>0.02772</v>
       </c>
       <c r="J3" s="13" t="n">
-        <v>0.03987</v>
+        <v>0.0405</v>
       </c>
       <c r="K3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="13" t="n">
-        <v>0.01404</v>
+        <v>0.01431</v>
       </c>
       <c r="M3" s="13" t="n">
-        <v>0.02853</v>
+        <v>0.02907</v>
       </c>
       <c r="N3" s="13" t="n">
-        <v>0.04221</v>
+        <v>0.04284</v>
       </c>
       <c r="O3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="13" t="n">
-        <v>0.03159</v>
+        <v>0.03213</v>
       </c>
       <c r="Q3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="13" t="n">
-        <v>0.03051</v>
+        <v>0.03105</v>
       </c>
       <c r="S3" s="13" t="n">
-        <v>0.01611</v>
+        <v>0.01638</v>
       </c>
       <c r="T3" s="13" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="13" t="n">
-        <v>0.01638</v>
+        <v>0.01665</v>
       </c>
       <c r="V3" s="13" t="n">
-        <v>0.03231</v>
+        <v>0.03294</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>0.14607</v>
+        <v>0.1485</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3086,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3163,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3234,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4361,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="17" t="n">
-        <v>0.0169</v>
+        <v>0.0164</v>
       </c>
       <c r="J2" s="17" t="n">
-        <v>0.0168</v>
+        <v>0.0162</v>
       </c>
       <c r="K2" s="17" t="n">
-        <v>0.0172</v>
+        <v>0.0167</v>
       </c>
       <c r="L2" s="17" t="n">
         <v>0</v>
@@ -4376,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="17" t="n">
-        <v>0.0172</v>
+        <v>0.0167</v>
       </c>
       <c r="O2" s="17" t="n">
         <v>0</v>
@@ -4391,19 +4385,19 @@
         <v>0</v>
       </c>
       <c r="S2" s="17" t="n">
-        <v>0</v>
+        <v>0.0179</v>
       </c>
       <c r="T2" s="17" t="n">
-        <v>0.037</v>
+        <v>0.0364</v>
       </c>
       <c r="U2" s="17" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="17" t="n">
-        <v>0.0368</v>
+        <v>0.0542</v>
       </c>
       <c r="W2" s="17" t="n">
-        <v>0.0702</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="3">
@@ -4432,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="I3" s="17" t="n">
-        <v>0.01521</v>
+        <v>0.01476</v>
       </c>
       <c r="J3" s="17" t="n">
-        <v>0.01512</v>
+        <v>0.01458</v>
       </c>
       <c r="K3" s="17" t="n">
-        <v>0.01548</v>
+        <v>0.01503</v>
       </c>
       <c r="L3" s="17" t="n">
         <v>0</v>
@@ -4447,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="17" t="n">
-        <v>0.01548</v>
+        <v>0.01503</v>
       </c>
       <c r="O3" s="17" t="n">
         <v>0</v>
@@ -4462,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="S3" s="17" t="n">
-        <v>0</v>
+        <v>0.01611</v>
       </c>
       <c r="T3" s="17" t="n">
-        <v>0.0333</v>
+        <v>0.03276</v>
       </c>
       <c r="U3" s="17" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="17" t="n">
-        <v>0.03312</v>
+        <v>0.04878</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>0.06318</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="4">
@@ -4864,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="18" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="P2" s="18" t="n">
         <v>0</v>
@@ -4873,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="18" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="S2" s="18" t="n">
         <v>0</v>
@@ -4882,13 +4876,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="18" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="V2" s="18" t="n">
-        <v>0.0855</v>
+        <v>0</v>
       </c>
       <c r="W2" s="18" t="n">
-        <v>0.1786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4935,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="18" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="P3" s="18" t="n">
         <v>0</v>
@@ -4944,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18" t="n">
         <v>0</v>
@@ -4953,13 +4947,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="18" t="n">
-        <v>0.07497</v>
+        <v>0</v>
       </c>
       <c r="V3" s="18" t="n">
-        <v>0.07695</v>
+        <v>0</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.16074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4973,64 +4967,34 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="18"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5044,206 +5008,62 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="18"/>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="18" t="n">
-        <v>0.0187</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="18" t="n">
-        <v>0.0096</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="18" t="n">
-        <v>0.0097</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="18" t="n">
-        <v>0.0382</v>
+        <v>0.5</v>
       </c>
       <c r="K5" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="18" t="n">
-        <v>0.0098</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="18" t="n">
-        <v>0.0098</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="18" t="n">
-        <v>0.0099</v>
+        <v>0.5</v>
       </c>
       <c r="P5" s="18" t="n">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="Q5" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="18" t="n">
-        <v>0.0199</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="18" t="n">
-        <v>0.0202</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="18" t="n">
-        <v>0.0201</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="18" t="n">
-        <v>0.0884</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="18" t="n">
-        <v>0.01683</v>
-      </c>
-      <c r="H6" s="18" t="n">
-        <v>0.00864</v>
-      </c>
-      <c r="I6" s="18" t="n">
-        <v>0.00873</v>
-      </c>
-      <c r="J6" s="18" t="n">
-        <v>0.03438</v>
-      </c>
-      <c r="K6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18" t="n">
-        <v>0.00882</v>
-      </c>
-      <c r="M6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18" t="n">
-        <v>0.00882</v>
-      </c>
-      <c r="O6" s="18" t="n">
-        <v>0.00891</v>
-      </c>
-      <c r="P6" s="18" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="Q6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>0.01791</v>
-      </c>
-      <c r="S6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="18" t="n">
-        <v>0.01818</v>
-      </c>
-      <c r="V6" s="18" t="n">
-        <v>0.01809</v>
-      </c>
-      <c r="W6" s="18" t="n">
-        <v>0.07956</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="19" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="P2" s="19" t="n">
         <v>0</v>
@@ -5384,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="19" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="S2" s="19" t="n">
         <v>0</v>
@@ -5393,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="19" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="V2" s="19" t="n">
-        <v>0</v>
+        <v>0.0855</v>
       </c>
       <c r="W2" s="19" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="3">
@@ -5446,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="19" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="P3" s="19" t="n">
         <v>0</v>
@@ -5455,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="19" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="S3" s="19" t="n">
         <v>0</v>
@@ -5464,13 +5284,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="19" t="n">
-        <v>0</v>
+        <v>0.07497</v>
       </c>
       <c r="V3" s="19" t="n">
-        <v>0</v>
+        <v>0.07695</v>
       </c>
       <c r="W3" s="19" t="n">
-        <v>0</v>
+        <v>0.16074</v>
       </c>
     </row>
     <row r="4">
@@ -5541,6 +5361,219 @@
         <v>0</v>
       </c>
       <c r="W4" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>0.0187</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>0.0096</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>0.0097</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>0.0382</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="M5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19" t="n">
+        <v>0.0098</v>
+      </c>
+      <c r="O5" s="19" t="n">
+        <v>0.0099</v>
+      </c>
+      <c r="P5" s="19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="19" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="S5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="V5" s="19" t="n">
+        <v>0.0201</v>
+      </c>
+      <c r="W5" s="19" t="n">
+        <v>0.0884</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="19" t="n">
+        <v>0.01683</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>0.00864</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>0.00873</v>
+      </c>
+      <c r="J6" s="19" t="n">
+        <v>0.03438</v>
+      </c>
+      <c r="K6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="M6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="O6" s="19" t="n">
+        <v>0.00891</v>
+      </c>
+      <c r="P6" s="19" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="Q6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19" t="n">
+        <v>0.01791</v>
+      </c>
+      <c r="S6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19" t="n">
+        <v>0.01818</v>
+      </c>
+      <c r="V6" s="19" t="n">
+        <v>0.01809</v>
+      </c>
+      <c r="W6" s="19" t="n">
+        <v>0.07956</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6092,13 +6125,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="20" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="20" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="20" t="n">
-        <v>0.1031</v>
+        <v>0</v>
       </c>
       <c r="K4" s="20" t="n">
         <v>0</v>
@@ -6390,13 +6423,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I4" s="21" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="21" t="n">
-        <v>0</v>
+        <v>0.1031</v>
       </c>
       <c r="K4" s="21" t="n">
         <v>0</v>
@@ -6435,329 +6468,6 @@
         <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="W5" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6859,7 +6569,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6928,7 +6640,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6981,6 +6695,400 @@
         <v>0</v>
       </c>
       <c r="W3" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" s="22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="22" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7406,7 +7514,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7477,7 +7585,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7548,7 +7656,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7703,33 +7811,35 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="24" t="n">
-        <v>0.04</v>
+        <v>0.0333</v>
       </c>
       <c r="H2" s="24" t="n">
-        <v>0.0417</v>
+        <v>0.0345</v>
       </c>
       <c r="I2" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>0.0823</v>
+        <v>0.0683</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>0.0435</v>
+        <v>0.0357</v>
       </c>
       <c r="L2" s="24" t="n">
-        <v>0.0909</v>
+        <v>0.0741</v>
       </c>
       <c r="M2" s="24" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="24" t="n">
-        <v>0.1364</v>
+        <v>0.1111</v>
       </c>
       <c r="O2" s="24" t="n">
         <v>0</v>
@@ -7744,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="24" t="n">
-        <v>0.0588</v>
+        <v>0.0455</v>
       </c>
       <c r="T2" s="24" t="n">
         <v>0</v>
@@ -7753,10 +7863,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="24" t="n">
-        <v>0.0588</v>
+        <v>0.0455</v>
       </c>
       <c r="W2" s="24" t="n">
-        <v>0.2913</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="3">
@@ -7772,33 +7882,35 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="24" t="n">
-        <v>0.036</v>
+        <v>0.02997</v>
       </c>
       <c r="H3" s="24" t="n">
-        <v>0.03753</v>
+        <v>0.03105</v>
       </c>
       <c r="I3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>0.07407</v>
+        <v>0.06147</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>0.03915</v>
+        <v>0.03213</v>
       </c>
       <c r="L3" s="24" t="n">
-        <v>0.08181</v>
+        <v>0.06669</v>
       </c>
       <c r="M3" s="24" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="24" t="n">
-        <v>0.12276</v>
+        <v>0.09999</v>
       </c>
       <c r="O3" s="24" t="n">
         <v>0</v>
@@ -7813,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="24" t="n">
-        <v>0.05292</v>
+        <v>0.04095</v>
       </c>
       <c r="T3" s="24" t="n">
         <v>0</v>
@@ -7822,10 +7934,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="24" t="n">
-        <v>0.05292</v>
+        <v>0.04095</v>
       </c>
       <c r="W3" s="24" t="n">
-        <v>0.26217</v>
+        <v>0.21096</v>
       </c>
     </row>
     <row r="4">
@@ -8042,7 +8154,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8095,7 +8209,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8133,201 +8249,6 @@
       </c>
       <c r="W3" s="25" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V3" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W3" s="26" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8726,7 +8647,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8777,7 +8700,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8828,7 +8753,9 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -8879,7 +8806,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -9040,37 +8969,37 @@
         <v>0.0299</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.0152</v>
+        <v>0.0149</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0.0597</v>
+        <v>0.0594</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>0.0312</v>
+        <v>0.0308</v>
       </c>
       <c r="P2" s="5" t="n">
-        <v>0.0164</v>
+        <v>0.0161</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.0164</v>
+        <v>0.0161</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.0645</v>
+        <v>0.0635</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0.0169</v>
+        <v>0.0167</v>
       </c>
       <c r="U2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.0168</v>
+        <v>0.0165</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.1553</v>
+        <v>0.1538</v>
       </c>
     </row>
     <row r="3">
@@ -9111,37 +9040,37 @@
         <v>0.02691</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.01368</v>
+        <v>0.01341</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0.05373</v>
+        <v>0.05346</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>0.02808</v>
+        <v>0.02772</v>
       </c>
       <c r="P3" s="5" t="n">
-        <v>0.01476</v>
+        <v>0.01449</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.01476</v>
+        <v>0.01449</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.05805</v>
+        <v>0.05715</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0.01521</v>
+        <v>0.01503</v>
       </c>
       <c r="U3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.01512</v>
+        <v>0.01485</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.13977</v>
+        <v>0.13842</v>
       </c>
     </row>
     <row r="4">
@@ -9355,7 +9284,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9426,7 +9355,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9497,7 +9426,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -11025,7 +10954,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11096,7 +11025,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11167,7 +11096,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11322,7 +11251,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11379,7 +11310,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
@@ -31,12 +31,14 @@
     <sheet name="Wolfschlugen Germany" sheetId="23" state="visible" r:id="rId23"/>
     <sheet name="Wood Dale Illinois" sheetId="24" state="visible" r:id="rId24"/>
     <sheet name="Denver Colorado" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Betzdorf Germany" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Cotia São Paulo Brazil" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -205,12 +207,18 @@
   <si>
     <t xml:space="preserve">Denver Colorado</t>
   </si>
+  <si>
+    <t xml:space="preserve">Betzdorf Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotia São Paulo Brazil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="27">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -236,6 +244,8 @@
     <numFmt numFmtId="187" formatCode="0.0%"/>
     <numFmt numFmtId="188" formatCode="0.0%"/>
     <numFmt numFmtId="189" formatCode="0.0%"/>
+    <numFmt numFmtId="190" formatCode="0.0%"/>
+    <numFmt numFmtId="191" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -271,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -298,6 +308,8 @@
     <xf numFmtId="187" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="189" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -903,9 +915,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1" t="n">
         <v>1</v>
       </c>
@@ -954,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1025,7 +1035,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1096,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1108,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.0035</v>
+        <v>0.0034</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>0.0036</v>
@@ -1117,40 +1127,40 @@
         <v>0</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1536,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1607,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2406,9 +2416,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
         <v>1</v>
       </c>
@@ -2457,7 +2465,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2528,7 +2536,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2599,7 +2607,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2620,40 +2628,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0105</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2926,7 @@
         <v>0.0357</v>
       </c>
       <c r="L4" s="13" t="n">
-        <v>0</v>
+        <v>0.0182</v>
       </c>
       <c r="M4" s="13" t="n">
         <v>0</v>
@@ -3086,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3157,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3228,28 +3236,28 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="13" t="n">
-        <v>0.026</v>
+        <v>0.0255</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>0.0065</v>
+        <v>0.0064</v>
       </c>
       <c r="I9" s="13" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>0.0328</v>
+        <v>0.0322</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>0.0136</v>
+        <v>0.0133</v>
       </c>
       <c r="L9" s="13" t="n">
-        <v>0</v>
+        <v>0.0135</v>
       </c>
       <c r="M9" s="13" t="n">
         <v>0</v>
@@ -3611,9 +3619,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="14"/>
-      <c r="L5" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="14"/>
       <c r="M5" s="14" t="n">
         <v>1</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="M4" s="17" t="n">
         <v>0</v>
@@ -4692,9 +4698,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="17"/>
       <c r="M7" s="17" t="n">
         <v>1</v>
       </c>
@@ -5378,7 +5382,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5449,7 +5453,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5520,7 +5524,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6893,7 +6897,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6964,7 +6968,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7035,7 +7039,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7514,7 +7518,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7585,7 +7589,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7656,7 +7660,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8257,6 +8261,450 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" s="26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -8754,7 +9202,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -8807,7 +9255,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -9284,7 +9732,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9355,7 +9803,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9426,7 +9874,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9444,10 +9892,10 @@
         <v>0.0692</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.022</v>
+        <v>0.0222</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -9925,9 +10373,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
@@ -10215,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.0357</v>
+        <v>0.0345</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0345</v>
+        <v>0.0333</v>
       </c>
       <c r="K4" s="7" t="n">
         <v>0</v>
@@ -10415,7 +10861,7 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6667</v>
       </c>
       <c r="M7" s="7" t="n">
         <v>0.666666666666667</v>
@@ -10763,7 +11209,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10814,7 +11260,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10885,7 +11331,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10904,40 +11350,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -10954,7 +11400,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11025,7 +11471,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11096,28 +11542,28 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.0417</v>
+        <v>0.0413</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>0.04</v>
+        <v>0.0397</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>0.0894</v>
+        <v>0.0887</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.008</v>
+        <v>0.0079</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0</v>
+        <v>0.0397</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
@@ -688,7 +688,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -759,7 +759,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -830,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -854,37 +854,37 @@
         <v>0.0161</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="5">
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0035</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1035,7 +1035,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0035</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1106,7 +1106,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0035</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1130,37 +1130,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0</v>
+        <v>0.0084</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1262,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1333,7 +1333,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1404,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1428,37 +1428,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="5">
@@ -1475,7 +1475,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0385</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0385</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1617,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0385</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1641,37 +1641,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0</v>
+        <v>0.0077</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0</v>
+        <v>0.0231</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0</v>
+        <v>0.0924</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2071,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.0484</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2142,7 +2142,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.0484</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2213,7 +2213,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.0484</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2237,37 +2237,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.02905</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.02905</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.00968333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.02905</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.1162</v>
       </c>
     </row>
     <row r="5">
@@ -2465,7 +2465,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0314</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2536,7 +2536,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0314</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2607,7 +2607,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0776</v>
+        <v>0.0314</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2631,37 +2631,37 @@
         <v>0.0105</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0</v>
+        <v>0.01885</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0</v>
+        <v>0.01885</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0</v>
+        <v>0.00628333333333333</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0</v>
+        <v>0.01885</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0</v>
+        <v>0.0754</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2763,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2834,7 +2834,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2905,7 +2905,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0</v>
+        <v>0.1064</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2929,37 +2929,37 @@
         <v>0.0182</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="5">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0776</v>
+        <v>0.0589</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3165,7 +3165,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0776</v>
+        <v>0.0589</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3236,7 +3236,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0776</v>
+        <v>0.0589</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3260,37 +3260,37 @@
         <v>0.0135</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>0</v>
+        <v>0.03535</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>0</v>
+        <v>0.03535</v>
       </c>
       <c r="S9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="T9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="U9" s="13" t="n">
-        <v>0</v>
+        <v>0.0117833333333333</v>
       </c>
       <c r="V9" s="13" t="n">
-        <v>0</v>
+        <v>0.03535</v>
       </c>
       <c r="W9" s="13" t="n">
-        <v>0</v>
+        <v>0.1414</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +4349,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4420,7 +4420,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4491,7 +4491,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0</v>
+        <v>0.0159</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4515,37 +4515,37 @@
         <v>0.0161</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0</v>
+        <v>0.00318333333333333</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0</v>
+        <v>0.00955</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="5">
@@ -4831,9 +4831,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4902,9 +4900,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5382,7 +5378,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5453,7 +5449,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5524,7 +5520,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6276,7 +6272,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6347,7 +6343,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6418,7 +6414,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0</v>
+        <v>0.1042</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6442,37 +6438,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0</v>
+        <v>0.0208416666666667</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0</v>
+        <v>0.062525</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <v>0.2501</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +6893,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6968,7 +6964,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7039,7 +7035,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7518,7 +7514,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7589,7 +7585,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7660,7 +7656,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7815,9 +7811,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="24"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7886,9 +7880,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8158,9 +8150,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="25"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -8213,9 +8203,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="25"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8642,7 +8630,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -9095,9 +9083,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9148,9 +9134,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -9201,9 +9185,7 @@
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -9254,9 +9236,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -9732,7 +9712,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1016</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9803,7 +9783,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1016</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9874,7 +9854,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.1016</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9898,37 +9878,37 @@
         <v>0.0108</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0.06095</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0</v>
+        <v>0.06095</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>0</v>
+        <v>0.0203166666666667</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>0</v>
+        <v>0.06095</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>0</v>
+        <v>0.2438</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10010,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.0595</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10101,7 +10081,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.0595</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10172,7 +10152,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.0595</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10196,37 +10176,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.0119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.1428</v>
       </c>
     </row>
     <row r="5">
@@ -10507,7 +10487,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10578,7 +10558,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10649,7 +10629,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.0331</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10673,37 +10653,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.01985</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.01985</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.00661666666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.01985</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.0794</v>
       </c>
     </row>
     <row r="5">
@@ -10996,7 +10976,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.0698</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11067,7 +11047,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.0698</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11138,7 +11118,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.0698</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11162,37 +11142,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.0139583333333333</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.041875</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.1675</v>
       </c>
     </row>
     <row r="5">
@@ -11400,7 +11380,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.1362</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11471,7 +11451,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.1362</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11542,7 +11522,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.1362</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11566,37 +11546,37 @@
         <v>0.0397</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0</v>
+        <v>0.081725</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0</v>
+        <v>0.081725</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0</v>
+        <v>0.0272416666666667</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0</v>
+        <v>0.081725</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0</v>
+        <v>0.3269</v>
       </c>
     </row>
   </sheetData>
@@ -11697,9 +11677,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11756,9 +11734,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
@@ -854,37 +854,37 @@
         <v>0.0161</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.00955</v>
+        <v>0.0161</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.00955</v>
+        <v>0.00795</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00265</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.00955</v>
+        <v>0.00795</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.0382</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="5">
@@ -916,12 +916,8 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
@@ -1130,37 +1126,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.0021</v>
+        <v>0.00175</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.0007</v>
+        <v>0.000583333333333333</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.0021</v>
+        <v>0.00175</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.0084</v>
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1333,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1404,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.0685</v>
+        <v>0.069</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1428,37 +1424,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="N4" s="10" t="n">
-        <v>0.0411</v>
+        <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0411</v>
+        <v>0.0345</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0137</v>
+        <v>0.0115</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0411</v>
+        <v>0.0345</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.1644</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="5">
@@ -1475,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0385</v>
+        <v>0.0383</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1546,7 +1542,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0385</v>
+        <v>0.0383</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1617,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0385</v>
+        <v>0.0383</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1641,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.0231</v>
+        <v>0.0385</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.0231</v>
+        <v>0.01915</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.0077</v>
+        <v>0.00638333333333333</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.0231</v>
+        <v>0.01915</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.0924</v>
+        <v>0.0766</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0484</v>
+        <v>0.0485</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2142,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0484</v>
+        <v>0.0485</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2213,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0484</v>
+        <v>0.0485</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2237,37 +2233,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.02905</v>
+        <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.02905</v>
+        <v>0.02425</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.00968333333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.02905</v>
+        <v>0.02425</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.1162</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="5">
@@ -2417,12 +2413,8 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
-      <c r="M7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12" t="n">
         <v>1</v>
       </c>
@@ -2465,7 +2457,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0314</v>
+        <v>0.0521</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2536,7 +2528,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0314</v>
+        <v>0.0521</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2607,7 +2599,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0314</v>
+        <v>0.0521</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2616,52 +2608,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0.0105</v>
+        <v>0.0104</v>
       </c>
       <c r="I10" s="12" t="n">
+        <v>0.0103</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12" t="n">
         <v>0.0104</v>
       </c>
-      <c r="J10" s="12" t="n">
-        <v>0.0209</v>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12" t="n">
-        <v>0.0105</v>
-      </c>
       <c r="M10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.0213</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.01885</v>
+        <v>0.0313</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.01885</v>
+        <v>0.02605</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.00628333333333333</v>
+        <v>0.00868333333333333</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.01885</v>
+        <v>0.02605</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0.0754</v>
+        <v>0.1042</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2755,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.1064</v>
+        <v>0.0896</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2834,7 +2826,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.1064</v>
+        <v>0.0896</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2905,13 +2897,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.1064</v>
+        <v>0.0896</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>0.0526</v>
+        <v>0.0536</v>
       </c>
       <c r="H4" s="13" t="n">
         <v>0</v>
@@ -2920,46 +2912,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="13" t="n">
-        <v>0.0526</v>
+        <v>0.0536</v>
       </c>
       <c r="K4" s="13" t="n">
-        <v>0.0357</v>
+        <v>0.0364</v>
       </c>
       <c r="L4" s="13" t="n">
-        <v>0.0182</v>
+        <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0.06385</v>
+        <v>0.0359</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.06385</v>
+        <v>0.0448</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0149333333333333</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.06385</v>
+        <v>0.0448</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.2554</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="5">
@@ -3094,7 +3086,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0589</v>
+        <v>0.0792</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3165,7 +3157,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0589</v>
+        <v>0.0792</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3236,7 +3228,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0589</v>
+        <v>0.0792</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3257,40 +3249,40 @@
         <v>0.0133</v>
       </c>
       <c r="L9" s="13" t="n">
-        <v>0.0135</v>
+        <v>0.0203</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0138</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>0.03535</v>
+        <v>0.0474</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>0.03535</v>
+        <v>0.0396</v>
       </c>
       <c r="S9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="T9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="U9" s="13" t="n">
-        <v>0.0117833333333333</v>
+        <v>0.0132</v>
       </c>
       <c r="V9" s="13" t="n">
-        <v>0.03535</v>
+        <v>0.0396</v>
       </c>
       <c r="W9" s="13" t="n">
-        <v>0.1414</v>
+        <v>0.1584</v>
       </c>
     </row>
   </sheetData>
@@ -3620,12 +3612,8 @@
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-      <c r="M5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="14" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4337,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.0159</v>
+        <v>0.0157</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4420,7 +4408,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.0159</v>
+        <v>0.0157</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4491,7 +4479,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.0159</v>
+        <v>0.0157</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4512,40 +4500,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="17" t="n">
-        <v>0.0161</v>
+        <v>0.0159</v>
       </c>
       <c r="M4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="17" t="n">
-        <v>0.00955</v>
+        <v>0.0158</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.00955</v>
+        <v>0.00785</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.00318333333333333</v>
+        <v>0.00261666666666667</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.00955</v>
+        <v>0.00785</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.0382</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="5">
@@ -4699,12 +4687,8 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="17"/>
-      <c r="M7" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="17" t="n">
         <v>1</v>
       </c>
@@ -6272,7 +6256,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.1042</v>
+        <v>0.2105</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6343,7 +6327,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.1042</v>
+        <v>0.2105</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6414,7 +6398,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.1042</v>
+        <v>0.2105</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6438,37 +6422,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.1111</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.062525</v>
+        <v>0.1075</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.062525</v>
+        <v>0.10525</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0208416666666667</v>
+        <v>0.0350833333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.062525</v>
+        <v>0.10525</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.2501</v>
+        <v>0.421</v>
       </c>
     </row>
   </sheetData>
@@ -8426,9 +8410,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="26"/>
-      <c r="M3" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="M3" s="26"/>
       <c r="N3" s="26" t="n">
         <v>1</v>
       </c>
@@ -9712,7 +9694,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1016</v>
+        <v>0.1009</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9783,7 +9765,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1016</v>
+        <v>0.1009</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9854,7 +9836,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1016</v>
+        <v>0.1009</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9878,37 +9860,37 @@
         <v>0.0108</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06095</v>
+        <v>0.0327</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.06095</v>
+        <v>0.05045</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>0.0203166666666667</v>
+        <v>0.0168166666666667</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>0.06095</v>
+        <v>0.05045</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>0.2438</v>
+        <v>0.2018</v>
       </c>
     </row>
   </sheetData>
@@ -10010,7 +9992,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0595</v>
+        <v>0.0599</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10081,7 +10063,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0595</v>
+        <v>0.0599</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10152,7 +10134,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0595</v>
+        <v>0.0599</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10176,37 +10158,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0357</v>
+        <v>0.0613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.0357</v>
+        <v>0.02995</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0119</v>
+        <v>0.00998333333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0357</v>
+        <v>0.02995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1428</v>
+        <v>0.1198</v>
       </c>
     </row>
     <row r="5">
@@ -10487,7 +10469,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10558,7 +10540,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10629,7 +10611,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0331</v>
+        <v>0.033</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10653,37 +10635,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.01985</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.01985</v>
+        <v>0.0165</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.00661666666666667</v>
+        <v>0.0055</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.01985</v>
+        <v>0.0165</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.0794</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="5">
@@ -10843,11 +10825,9 @@
       <c r="L7" s="7" t="n">
         <v>0.6667</v>
       </c>
-      <c r="M7" s="7" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="7"/>
       <c r="N7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>0.666666666666667</v>
@@ -10976,7 +10956,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0698</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11047,7 +11027,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0698</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11118,61 +11098,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0698</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="8" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <v>0.0227</v>
       </c>
-      <c r="H4" s="8" t="n">
-        <v>0.0233</v>
-      </c>
       <c r="I4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0462</v>
+        <v>0.0451</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.0233</v>
+        <v>0.0227</v>
       </c>
       <c r="L4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.041875</v>
+        <v>0.0231</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.041875</v>
+        <v>0.03425</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0139583333333333</v>
+        <v>0.0114166666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.041875</v>
+        <v>0.03425</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1675</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="5">
@@ -11332,11 +11312,9 @@
       <c r="L7" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="8" t="n">
-        <v>0.571428571428571</v>
-      </c>
+      <c r="M7" s="8"/>
       <c r="N7" s="8" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="8" t="n">
         <v>0.571428571428571</v>
@@ -11380,7 +11358,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.1362</v>
+        <v>0.177</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11451,7 +11429,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.1362</v>
+        <v>0.177</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11522,61 +11500,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.1362</v>
+        <v>0.177</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.0413</v>
+        <v>0.0417</v>
       </c>
       <c r="H10" s="8" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>0.0894</v>
+      </c>
+      <c r="K10" s="8" t="n">
         <v>0.008</v>
       </c>
-      <c r="I10" s="8" t="n">
-        <v>0.0397</v>
-      </c>
-      <c r="J10" s="8" t="n">
-        <v>0.0887</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0.0079</v>
-      </c>
       <c r="L10" s="8" t="n">
-        <v>0.0397</v>
+        <v>0.04</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0394</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.081725</v>
+        <v>0.0875</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.081725</v>
+        <v>0.0885</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0272416666666667</v>
+        <v>0.0295</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.081725</v>
+        <v>0.0885</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.3269</v>
+        <v>0.354</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Linear Motion Division.xlsx
@@ -860,31 +860,31 @@
         <v>0.0161</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.00795</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.00265</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.00795</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.0318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -919,31 +919,31 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -960,7 +960,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.0035</v>
+        <v>0.007</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1031,7 +1031,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0035</v>
+        <v>0.007</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -1102,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0035</v>
+        <v>0.007</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -1132,31 +1132,31 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.0035</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.00175</v>
+        <v>0.003</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.000583333333333333</v>
+        <v>0.001</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.00175</v>
+        <v>0.003</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1329,7 +1329,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="10" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1400,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>0.069</v>
+        <v>0.0685</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1430,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="P4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="R4" s="10" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="S4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="T4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="U4" s="10" t="n">
-        <v>0.0115</v>
+        <v>0</v>
       </c>
       <c r="V4" s="10" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="W4" s="10" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1471,7 +1471,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0383</v>
+        <v>0.038</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1542,7 +1542,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0383</v>
+        <v>0.038</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1613,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0383</v>
+        <v>0.038</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1643,31 +1643,31 @@
         <v>0.0385</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0.005425</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0.005425</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.01915</v>
+        <v>0.016275</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0.005425</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0.005425</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.00638333333333333</v>
+        <v>0.005425</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.01915</v>
+        <v>0.016275</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.0766</v>
+        <v>0.0651</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2067,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.0485</v>
+        <v>0.0486</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2138,7 +2138,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.0485</v>
+        <v>0.0486</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2209,7 +2209,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0485</v>
+        <v>0.0486</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2239,31 +2239,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.02425</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.02425</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2415,9 +2415,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>1</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0521</v>
+        <v>0.0418</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2528,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0521</v>
+        <v>0.0418</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2599,7 +2597,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="12" t="n">
-        <v>0.0521</v>
+        <v>0.0418</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2623,37 +2621,37 @@
         <v>0.0104</v>
       </c>
       <c r="M10" s="12" t="n">
-        <v>0.0213</v>
+        <v>0.0106</v>
       </c>
       <c r="N10" s="12" t="n">
-        <v>0.0313</v>
+        <v>0.0209</v>
       </c>
       <c r="O10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0.005975</v>
       </c>
       <c r="Q10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0.005975</v>
       </c>
       <c r="R10" s="12" t="n">
-        <v>0.02605</v>
+        <v>0.017925</v>
       </c>
       <c r="S10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0.005975</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0.005975</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>0.00868333333333333</v>
+        <v>0.005975</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>0.02605</v>
+        <v>0.017925</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>0.1042</v>
+        <v>0.0717</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2753,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.0896</v>
+        <v>0.1073</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2826,7 +2824,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.0896</v>
+        <v>0.1073</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2897,7 +2895,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0896</v>
+        <v>0.1073</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2927,31 +2925,31 @@
         <v>0.0359</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0.0179</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.0448</v>
+        <v>0</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.0149333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.0448</v>
+        <v>0</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.1792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3086,7 +3084,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0792</v>
+        <v>0.0863</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3157,7 +3155,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0792</v>
+        <v>0.0863</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3228,7 +3226,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0792</v>
+        <v>0.0863</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3252,37 +3250,37 @@
         <v>0.0203</v>
       </c>
       <c r="M9" s="13" t="n">
-        <v>0.0138</v>
+        <v>0.0137</v>
       </c>
       <c r="N9" s="13" t="n">
-        <v>0.0474</v>
+        <v>0.0473</v>
       </c>
       <c r="O9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.0069</v>
       </c>
       <c r="P9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.012325</v>
       </c>
       <c r="Q9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.012325</v>
       </c>
       <c r="R9" s="13" t="n">
-        <v>0.0396</v>
+        <v>0.036975</v>
       </c>
       <c r="S9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.012325</v>
       </c>
       <c r="T9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.012325</v>
       </c>
       <c r="U9" s="13" t="n">
-        <v>0.0132</v>
+        <v>0.012325</v>
       </c>
       <c r="V9" s="13" t="n">
-        <v>0.0396</v>
+        <v>0.036975</v>
       </c>
       <c r="W9" s="13" t="n">
-        <v>0.1584</v>
+        <v>0.1479</v>
       </c>
     </row>
   </sheetData>
@@ -3614,9 +3612,7 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14" t="n">
         <v>1</v>
       </c>
@@ -4337,7 +4333,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0.0157</v>
+        <v>0.0315</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4408,7 +4404,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0.0157</v>
+        <v>0.0315</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4479,7 +4475,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0.0157</v>
+        <v>0.0315</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4509,31 +4505,31 @@
         <v>0.0158</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0.0161</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.00785</v>
+        <v>0</v>
       </c>
       <c r="S4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="17" t="n">
-        <v>0.00261666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="17" t="n">
-        <v>0.00785</v>
+        <v>0</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.0314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4689,9 +4685,7 @@
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="17" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="17"/>
       <c r="P7" s="17" t="n">
         <v>1</v>
       </c>
@@ -5362,7 +5356,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5433,7 +5427,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5504,7 +5498,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0</v>
+        <v>0.0105</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5534,31 +5528,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="19" t="n">
-        <v>0</v>
+        <v>0.0106</v>
       </c>
       <c r="P7" s="19" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="Q7" s="19" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="R7" s="19" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="S7" s="19" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="T7" s="19" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="U7" s="19" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="V7" s="19" t="n">
-        <v>0</v>
+        <v>0.0045</v>
       </c>
       <c r="W7" s="19" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -6256,7 +6250,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.2105</v>
+        <v>0.2128</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6327,7 +6321,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.2105</v>
+        <v>0.2128</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6398,7 +6392,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.2105</v>
+        <v>0.2128</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6428,31 +6422,31 @@
         <v>0.1075</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.10525</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0350833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.10525</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.421</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7498,7 +7492,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="23" t="n">
-        <v>0</v>
+        <v>0.0206</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -7569,7 +7563,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0</v>
+        <v>0.0206</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -7640,7 +7634,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0</v>
+        <v>0.0206</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -7670,31 +7664,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="23" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P9" s="23" t="n">
-        <v>0</v>
+        <v>0.00294166666666667</v>
       </c>
       <c r="Q9" s="23" t="n">
-        <v>0</v>
+        <v>0.00294166666666667</v>
       </c>
       <c r="R9" s="23" t="n">
-        <v>0</v>
+        <v>0.008825</v>
       </c>
       <c r="S9" s="23" t="n">
-        <v>0</v>
+        <v>0.00294166666666667</v>
       </c>
       <c r="T9" s="23" t="n">
-        <v>0</v>
+        <v>0.00294166666666667</v>
       </c>
       <c r="U9" s="23" t="n">
-        <v>0</v>
+        <v>0.00294166666666667</v>
       </c>
       <c r="V9" s="23" t="n">
-        <v>0</v>
+        <v>0.008825</v>
       </c>
       <c r="W9" s="23" t="n">
-        <v>0</v>
+        <v>0.0353</v>
       </c>
     </row>
   </sheetData>
@@ -8414,9 +8408,7 @@
       <c r="N3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="26" t="n">
-        <v>1</v>
-      </c>
+      <c r="O3" s="26"/>
       <c r="P3" s="26" t="n">
         <v>1</v>
       </c>
@@ -9694,7 +9686,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1009</v>
+        <v>0.1003</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9765,7 +9757,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1009</v>
+        <v>0.1003</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9836,7 +9828,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1009</v>
+        <v>0.1003</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9866,31 +9858,31 @@
         <v>0.0327</v>
       </c>
       <c r="O9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0.014325</v>
       </c>
       <c r="Q9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0.014325</v>
       </c>
       <c r="R9" s="5" t="n">
-        <v>0.05045</v>
+        <v>0.042975</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0.014325</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0.014325</v>
       </c>
       <c r="U9" s="5" t="n">
-        <v>0.0168166666666667</v>
+        <v>0.014325</v>
       </c>
       <c r="V9" s="5" t="n">
-        <v>0.05045</v>
+        <v>0.042975</v>
       </c>
       <c r="W9" s="5" t="n">
-        <v>0.2018</v>
+        <v>0.1719</v>
       </c>
     </row>
   </sheetData>
@@ -9992,7 +9984,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0599</v>
+        <v>0.122</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10063,7 +10055,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0599</v>
+        <v>0.122</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10134,7 +10126,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0599</v>
+        <v>0.122</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10164,31 +10156,31 @@
         <v>0.0613</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0.0667</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.02995</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00998333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02995</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10342,9 +10334,7 @@
       <c r="N7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>1</v>
       </c>
@@ -10469,7 +10459,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.033</v>
+        <v>0.0658</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10540,7 +10530,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.033</v>
+        <v>0.0658</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10611,7 +10601,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.033</v>
+        <v>0.0658</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10641,31 +10631,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0323</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0055</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10682,7 +10672,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10735,7 +10725,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10806,7 +10796,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10830,31 +10820,31 @@
         <v>0.6</v>
       </c>
       <c r="O7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="U7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="W7" s="7" t="n">
-        <v>0.666666666666667</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -10956,7 +10946,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0685</v>
+        <v>0.0897</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11027,7 +11017,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0685</v>
+        <v>0.0897</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11098,25 +11088,25 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0685</v>
+        <v>0.0897</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="8" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <v>0.0222</v>
       </c>
-      <c r="H4" s="8" t="n">
-        <v>0.0227</v>
-      </c>
       <c r="I4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0451</v>
+        <v>0.0442</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.0227</v>
+        <v>0.0222</v>
       </c>
       <c r="L4" s="8" t="n">
         <v>0</v>
@@ -11125,34 +11115,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0.0231</v>
+        <v>0.0226</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0.0233</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.03425</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0114166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.03425</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11316,9 +11306,7 @@
       <c r="N7" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="8" t="n">
-        <v>0.571428571428571</v>
-      </c>
+      <c r="O7" s="8"/>
       <c r="P7" s="8" t="n">
         <v>0.571428571428571</v>
       </c>
@@ -11358,7 +11346,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.177</v>
+        <v>0.1951</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11429,7 +11417,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.177</v>
+        <v>0.1951</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11500,61 +11488,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.177</v>
+        <v>0.1951</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.0417</v>
+        <v>0.042</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>0.0081</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>0.04</v>
+        <v>0.0403</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>0.0894</v>
+        <v>0.0902</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.008</v>
+        <v>0.0081</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0.04</v>
+        <v>0.0403</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0394</v>
+        <v>0.0397</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.0875</v>
+        <v>0.0882</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.0165</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.027875</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.027875</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.0885</v>
+        <v>0.083625</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.027875</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.027875</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0295</v>
+        <v>0.027875</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.0885</v>
+        <v>0.083625</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.354</v>
+        <v>0.3345</v>
       </c>
     </row>
   </sheetData>
